--- a/Docs/EntregaFinal_GráficasReto1.xlsx
+++ b/Docs/EntregaFinal_GráficasReto1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/Reto1-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8207E7-EB0D-CB49-BC07-8D8B38687EEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672C24BA-63AB-7742-A4A7-C59B94861980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C3A23091-F56B-764B-B2A9-16EB20C813B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablas datos" sheetId="1" r:id="rId1"/>
     <sheet name="Requerimiento 0" sheetId="6" r:id="rId2"/>
     <sheet name="Requerimiento 1" sheetId="5" r:id="rId3"/>
     <sheet name="Requerimiento 2" sheetId="4" r:id="rId4"/>
@@ -30,12 +30,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
-    <t>Tamaño archivo CSV</t>
+    <t>Reuerimiento 0</t>
   </si>
   <si>
-    <t>Tiempo</t>
+    <t>Tamaño CSV [%]</t>
+  </si>
+  <si>
+    <t>Tiempo [s]</t>
+  </si>
+  <si>
+    <t>Reuerimiento 1</t>
+  </si>
+  <si>
+    <t>Reuerimiento 2</t>
+  </si>
+  <si>
+    <t>Reuerimiento 3</t>
+  </si>
+  <si>
+    <t>Reuerimiento 4</t>
   </si>
 </sst>
 </file>
@@ -71,32 +86,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -107,17 +106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6096BAC3-887A-844F-90CB-810F657B76DF}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B5" xr:uid="{168CA342-B63F-1544-AD51-FCB65F1BC3D4}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DC1D5AA1-1D3C-384E-B7B4-E400FE60972E}" name="Tamaño archivo CSV" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4499EA9F-5839-CC43-8846-DB627F919AC5}" name="Tiempo" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,56 +405,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D95D59-74F9-7A44-AA66-EE231A1E46A5}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>0.8</v>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/Docs/EntregaFinal_GráficasReto1.xlsx
+++ b/Docs/EntregaFinal_GráficasReto1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/Reto1-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/RETO1 FINAL/Reto1-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672C24BA-63AB-7742-A4A7-C59B94861980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C3A23091-F56B-764B-B2A9-16EB20C813B3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas datos" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,15 @@
     <sheet name="Requerimiento 3" sheetId="3" r:id="rId5"/>
     <sheet name="Requerimiento 4" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,35 +37,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
-    <t>Reuerimiento 0</t>
-  </si>
-  <si>
     <t>Tamaño CSV [%]</t>
   </si>
   <si>
     <t>Tiempo [s]</t>
   </si>
   <si>
-    <t>Reuerimiento 1</t>
+    <t>Requerimiento 2</t>
   </si>
   <si>
-    <t>Reuerimiento 2</t>
+    <t>Requerimiento 4</t>
   </si>
   <si>
-    <t>Reuerimiento 3</t>
+    <t>Requerimiento 0</t>
   </si>
   <si>
-    <t>Reuerimiento 4</t>
+    <t>Requerimiento 1</t>
+  </si>
+  <si>
+    <t>Requerimiento 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,16 +111,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -106,6 +148,5573 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1"/>
+              <a:t>REQUERIMIENTO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1" baseline="0"/>
+              <a:t> 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tablas datos'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requerimiento 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>725.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1493.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3001.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4285.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7305.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12120.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15702.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1222368448"/>
+        <c:axId val="-1222366400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1222368448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tamaño CSV (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1222366400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1222366400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiepo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1222368448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1"/>
+              <a:t>REQUERIMIENTO 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tablas datos'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requerimiento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>48.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>437.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>824.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>970.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1234446560"/>
+        <c:axId val="-1223757568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1234446560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> CSV (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1223757568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1223757568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1234446560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1"/>
+              <a:t>REQUERIMIENTO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tablas datos'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requerimiento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$B$14:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>122.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>544.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>845.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1459.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2464.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3332.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1220788752"/>
+        <c:axId val="-1216654832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1220788752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> CSV (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1216654832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1216654832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1220788752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1"/>
+              <a:t>REQUERIMIENTO 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tablas datos'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requerimiento 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$D$14:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$E$14:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>115.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>838.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1451.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2451.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3169.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1220737600"/>
+        <c:axId val="-1221434528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1220737600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tamaño CSV (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1221434528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1221434528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1220737600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1"/>
+              <a:t>REQUERIMIENTO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1" baseline="0"/>
+              <a:t> 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tablas datos'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requerimiento 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$A$25:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tablas datos'!$B$25:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>89.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>368.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>546.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>839.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1506.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2273.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1222376576"/>
+        <c:axId val="-1218420432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1222376576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> CSV (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1218420432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1218420432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1222376576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,11 +6013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D95D59-74F9-7A44-AA66-EE231A1E46A5}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,164 +6030,329 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>725.18</v>
+      </c>
       <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>48.14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1493.48</v>
+      </c>
       <c r="D5" s="1">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100.71</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3001.09</v>
+      </c>
       <c r="D6" s="1">
-        <v>80</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>188.77</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>100</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4285.83</v>
+      </c>
       <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>264.29000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7305.78</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>437.59</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
+      <c r="A9" s="1">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12120.75</v>
+      </c>
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1">
+        <v>824.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15702.78</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>970.77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="D12" s="1">
-        <v>10</v>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1">
-        <v>80</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>122.17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>115.43</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>265.01</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>263.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>544.49</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>520.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>845.83</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3">
+        <v>838.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1459.95</v>
+      </c>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1451.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2464.65</v>
+      </c>
+      <c r="D19" s="3">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2451.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>100</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1">
+      <c r="B20" s="1">
+        <v>3332.71</v>
+      </c>
+      <c r="D20" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E20" s="3">
+        <v>3169.35</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>50</v>
-      </c>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>80</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3">
+        <v>182.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>368.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>546.16999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>50</v>
+      </c>
+      <c r="B29" s="3">
+        <v>839.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>80</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1506.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>100</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B31" s="3">
+        <v>2273.89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -586,61 +6360,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E72546-D283-3F48-B243-45CB66C45793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70046A86-7ECF-D34F-93B0-1B99FCC90319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFBF06-711D-6143-B532-845143670380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719DF6CA-3247-AC41-93C8-51F4CE38D964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E7CE42-2E8D-8048-965C-75EA7E48BB96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/EntregaFinal_GráficasReto1.xlsx
+++ b/Docs/EntregaFinal_GráficasReto1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/RETO1 FINAL/Reto1-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/Reto1-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF7B31E-AF69-054C-A959-4CB7AA9BA2C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas datos" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,16 @@
     <sheet name="Requerimiento 3" sheetId="3" r:id="rId5"/>
     <sheet name="Requerimiento 4" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -131,10 +132,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -151,9 +152,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -195,7 +196,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -221,7 +221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -288,25 +288,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,6 +342,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-990F-C944-859A-06A9E271A82B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -401,7 +406,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -427,10 +431,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -464,7 +469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1222366400"/>
@@ -513,7 +518,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES_tradnl"/>
-                  <a:t>Tiepo</a:t>
+                  <a:t>Tiempo</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-ES_tradnl" baseline="0"/>
@@ -523,7 +528,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -549,10 +553,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -586,7 +591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1222368448"/>
@@ -603,7 +608,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -629,7 +633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -659,7 +663,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -671,9 +675,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -710,7 +714,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -736,7 +739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -803,25 +806,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,7 +845,7 @@
                   <c:v>188.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>264.29</c:v>
+                  <c:v>264.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>437.59</c:v>
@@ -857,6 +860,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9DEE-4944-A393-0E20271A2D6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -921,7 +929,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -947,10 +954,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -984,7 +992,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1223757568"/>
@@ -1043,7 +1051,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1069,10 +1076,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1106,7 +1114,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1234446560"/>
@@ -1123,7 +1131,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1149,7 +1156,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1179,7 +1186,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1191,9 +1198,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1235,7 +1242,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1261,7 +1267,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1328,25 +1334,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,6 +1388,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-254F-8343-9D14-2F7584C88129}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1446,7 +1457,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1472,10 +1482,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1509,7 +1520,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1216654832"/>
@@ -1568,7 +1579,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1594,10 +1604,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1631,7 +1642,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1220788752"/>
@@ -1648,7 +1659,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1674,7 +1684,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1704,7 +1714,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1716,9 +1726,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1755,7 +1765,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,7 +1790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1848,25 +1857,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,6 +1911,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B03-8142-8E7D-BFA9E4247DA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1961,7 +1975,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1987,7 +2000,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2025,7 +2038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1221434528"/>
@@ -2084,7 +2097,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2110,7 +2122,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2148,7 +2160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1220737600"/>
@@ -2165,7 +2177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2191,7 +2202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2221,7 +2232,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2233,9 +2244,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2277,7 +2288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2303,7 +2313,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2370,25 +2380,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,7 +2419,7 @@
                   <c:v>368.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>546.17</c:v>
+                  <c:v>546.16999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>839.87</c:v>
@@ -2424,6 +2434,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DA1-2C47-94E2-950E9C95F8EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2488,7 +2503,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2514,10 +2528,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2551,7 +2566,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1218420432"/>
@@ -2605,7 +2620,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2631,10 +2645,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2668,7 +2683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1222376576"/>
@@ -2685,7 +2700,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2711,7 +2725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2741,7 +2755,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5549,7 +5563,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5586,7 +5606,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5623,7 +5649,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5660,7 +5692,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5697,7 +5735,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6013,11 +6057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6360,11 +6404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6375,11 +6419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6390,11 +6434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6405,10 +6449,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -6420,10 +6464,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
